--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123051a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubofurto/cv123051a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>1.227526737450831</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.333160446525756</v>
+      </c>
+      <c r="C5">
+        <v>1.358801866047581</v>
+      </c>
+      <c r="D5">
+        <v>1.368907719761836</v>
+      </c>
+      <c r="E5">
+        <v>3.10949111606308</v>
+      </c>
+      <c r="F5">
+        <v>2.021742006314416</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1.333160446525756</v>
+        <v>4.992342134336492</v>
       </c>
       <c r="C6">
-        <v>1.358801866047581</v>
+        <v>4.939862906863921</v>
       </c>
       <c r="D6">
-        <v>1.368907719761836</v>
+        <v>4.793705524658257</v>
       </c>
       <c r="E6">
-        <v>3.10949111606308</v>
+        <v>19.82505467150902</v>
       </c>
       <c r="F6">
-        <v>2.021742006314416</v>
+        <v>8.344525360960574</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>4.992342134336492</v>
+        <v>3.184150547496187</v>
       </c>
       <c r="C7">
-        <v>4.939862906863921</v>
+        <v>3.281519638818659</v>
       </c>
       <c r="D7">
-        <v>4.793705524658257</v>
+        <v>3.219014586322682</v>
       </c>
       <c r="E7">
-        <v>19.82505467150902</v>
+        <v>7.467586638686745</v>
       </c>
       <c r="F7">
-        <v>8.344525360960574</v>
+        <v>4.157276257867172</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7.857903778376256</v>
+      </c>
+      <c r="C8">
+        <v>8.026184556707079</v>
+      </c>
+      <c r="D8">
+        <v>8.023569032253006</v>
+      </c>
+      <c r="E8">
+        <v>26.12612986444106</v>
+      </c>
+      <c r="F8">
+        <v>10.96488431427331</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.184150547496187</v>
+        <v>7.219340816930757</v>
       </c>
       <c r="C9">
-        <v>3.281519638818659</v>
+        <v>6.1907686750438</v>
       </c>
       <c r="D9">
-        <v>3.219014586322682</v>
+        <v>5.504064572393396</v>
       </c>
       <c r="E9">
-        <v>7.467586638686745</v>
+        <v>40.4470561688027</v>
       </c>
       <c r="F9">
-        <v>4.157276257867172</v>
+        <v>16.00147283390606</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>7.857903778376256</v>
+        <v>9.124890213815677</v>
       </c>
       <c r="C10">
-        <v>8.026184556707079</v>
+        <v>9.136700396568484</v>
       </c>
       <c r="D10">
-        <v>8.023569032253006</v>
+        <v>9.20506860759175</v>
       </c>
       <c r="E10">
-        <v>26.12612986444106</v>
+        <v>15.50497983701538</v>
       </c>
       <c r="F10">
-        <v>10.96488431427331</v>
+        <v>12.40256727206302</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>7.219340816930757</v>
+        <v>8.727939528599057</v>
       </c>
       <c r="C11">
-        <v>6.1907686750438</v>
+        <v>9.819837344724036</v>
       </c>
       <c r="D11">
-        <v>5.504064572393396</v>
+        <v>9.661550525056017</v>
       </c>
       <c r="E11">
-        <v>40.4470561688027</v>
+        <v>25.97735708019037</v>
       </c>
       <c r="F11">
-        <v>16.00147283390606</v>
+        <v>13.49372879544303</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>9.124890213815677</v>
+        <v>4.490590021302832</v>
       </c>
       <c r="C12">
-        <v>9.136700396568484</v>
+        <v>4.655908114653698</v>
       </c>
       <c r="D12">
-        <v>9.20506860759175</v>
+        <v>4.494080376693478</v>
       </c>
       <c r="E12">
-        <v>15.50497983701538</v>
+        <v>10.90687131335583</v>
       </c>
       <c r="F12">
-        <v>12.40256727206302</v>
+        <v>5.660129181282067</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>8.727939528599057</v>
+        <v>15.81841673562659</v>
       </c>
       <c r="C13">
-        <v>9.819837344724036</v>
+        <v>16.10791223501515</v>
       </c>
       <c r="D13">
-        <v>9.661550525056017</v>
+        <v>16.63441059317693</v>
       </c>
       <c r="E13">
-        <v>25.97735708019037</v>
+        <v>25.55479226884211</v>
       </c>
       <c r="F13">
-        <v>13.49372879544303</v>
+        <v>19.79649108344003</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>4.490590021302832</v>
+        <v>11.6237337797631</v>
       </c>
       <c r="C14">
-        <v>4.655908114653698</v>
+        <v>12.90666318911297</v>
       </c>
       <c r="D14">
-        <v>4.494080376693478</v>
+        <v>13.56916053263254</v>
       </c>
       <c r="E14">
-        <v>10.90687131335583</v>
+        <v>18.54876183329062</v>
       </c>
       <c r="F14">
-        <v>5.660129181282067</v>
+        <v>11.18630392309284</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>15.81841673562659</v>
+        <v>2.823979386579376</v>
       </c>
       <c r="C15">
-        <v>16.10791223501515</v>
+        <v>2.705020259792766</v>
       </c>
       <c r="D15">
-        <v>16.63441059317693</v>
+        <v>2.74647438872769</v>
       </c>
       <c r="E15">
-        <v>25.55479226884211</v>
+        <v>4.946407604133449</v>
       </c>
       <c r="F15">
-        <v>19.79649108344003</v>
+        <v>4.186201110247691</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>11.6237337797631</v>
+        <v>15.85646591662457</v>
       </c>
       <c r="C16">
-        <v>12.90666318911297</v>
+        <v>14.88286533658271</v>
       </c>
       <c r="D16">
-        <v>13.56916053263254</v>
+        <v>14.67621696938225</v>
       </c>
       <c r="E16">
-        <v>18.54876183329062</v>
+        <v>24.03929819727811</v>
       </c>
       <c r="F16">
-        <v>11.18630392309284</v>
+        <v>20.66771592073929</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>2.823979386579376</v>
+        <v>10.46542813399237</v>
       </c>
       <c r="C17">
-        <v>2.705020259792766</v>
+        <v>10.07671279762636</v>
       </c>
       <c r="D17">
-        <v>2.74647438872769</v>
+        <v>9.862268863506255</v>
       </c>
       <c r="E17">
-        <v>4.946407604133449</v>
+        <v>24.11472659209323</v>
       </c>
       <c r="F17">
-        <v>4.186201110247691</v>
+        <v>15.61789869303117</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>15.85646591662457</v>
+        <v>4.305917233501479</v>
       </c>
       <c r="C18">
-        <v>14.88286533658271</v>
+        <v>4.61957126216456</v>
       </c>
       <c r="D18">
-        <v>14.67621696938225</v>
+        <v>4.969103491781682</v>
       </c>
       <c r="E18">
-        <v>24.03929819727811</v>
+        <v>7.858998041595201</v>
       </c>
       <c r="F18">
-        <v>20.66771592073929</v>
+        <v>5.955636774358774</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>10.46542813399237</v>
+        <v>6.105446365254427</v>
       </c>
       <c r="C19">
-        <v>10.07671279762636</v>
+        <v>7.024436561546272</v>
       </c>
       <c r="D19">
-        <v>9.862268863506255</v>
+        <v>7.223472542177333</v>
       </c>
       <c r="E19">
-        <v>24.11472659209323</v>
+        <v>14.36345997248071</v>
       </c>
       <c r="F19">
-        <v>15.61789869303117</v>
+        <v>10.48147841418372</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.305917233501479</v>
+        <v>10.01326434114637</v>
       </c>
       <c r="C20">
-        <v>4.61957126216456</v>
+        <v>9.046465511231018</v>
       </c>
       <c r="D20">
-        <v>4.969103491781682</v>
+        <v>9.305806637291486</v>
       </c>
       <c r="E20">
-        <v>7.858998041595201</v>
+        <v>20.17638548066911</v>
       </c>
       <c r="F20">
-        <v>5.955636774358774</v>
+        <v>16.47557010608728</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>6.105446365254427</v>
+        <v>4.299432630611729</v>
       </c>
       <c r="C21">
-        <v>7.024436561546272</v>
+        <v>4.712609385772921</v>
       </c>
       <c r="D21">
-        <v>7.223472542177333</v>
+        <v>4.688178240759587</v>
       </c>
       <c r="E21">
-        <v>14.36345997248071</v>
+        <v>11.85889482196083</v>
       </c>
       <c r="F21">
-        <v>10.48147841418372</v>
+        <v>5.884390699620033</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>10.01326434114637</v>
+        <v>7.736075098077386</v>
       </c>
       <c r="C22">
-        <v>9.046465511231018</v>
+        <v>8.337958827111182</v>
       </c>
       <c r="D22">
-        <v>9.305806637291486</v>
+        <v>8.695259279583874</v>
       </c>
       <c r="E22">
-        <v>20.17638548066911</v>
+        <v>22.35809869607985</v>
       </c>
       <c r="F22">
-        <v>16.47557010608728</v>
+        <v>11.9000327148803</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>4.299432630611729</v>
+        <v>6.606962895082678</v>
       </c>
       <c r="C23">
-        <v>4.712609385772921</v>
+        <v>7.701417797747492</v>
       </c>
       <c r="D23">
-        <v>4.688178240759587</v>
+        <v>8.92688316128733</v>
       </c>
       <c r="E23">
-        <v>11.85889482196083</v>
+        <v>15.57939469400913</v>
       </c>
       <c r="F23">
-        <v>5.884390699620033</v>
+        <v>7.426052738573814</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>7.736075098077386</v>
+        <v>3.996418427484723</v>
       </c>
       <c r="C24">
-        <v>8.337958827111182</v>
+        <v>4.02283670092154</v>
       </c>
       <c r="D24">
-        <v>8.695259279583874</v>
+        <v>4.068985234685734</v>
       </c>
       <c r="E24">
-        <v>22.35809869607985</v>
+        <v>8.042727265325153</v>
       </c>
       <c r="F24">
-        <v>11.9000327148803</v>
+        <v>6.530161638121316</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>6.606962895082678</v>
+        <v>1.960385983801982</v>
       </c>
       <c r="C25">
-        <v>7.701417797747492</v>
+        <v>2.04797241675114</v>
       </c>
       <c r="D25">
-        <v>8.92688316128733</v>
+        <v>2.044018507666459</v>
       </c>
       <c r="E25">
-        <v>15.57939469400913</v>
+        <v>5.805918628276059</v>
       </c>
       <c r="F25">
-        <v>7.426052738573814</v>
+        <v>3.281019507442492</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>3.996418427484723</v>
+        <v>3.821855677065706</v>
       </c>
       <c r="C26">
-        <v>4.02283670092154</v>
+        <v>3.991837088064205</v>
       </c>
       <c r="D26">
-        <v>4.068985234685734</v>
+        <v>4.032526168018936</v>
       </c>
       <c r="E26">
-        <v>8.042727265325153</v>
+        <v>10.68397636232156</v>
       </c>
       <c r="F26">
-        <v>6.530161638121316</v>
+        <v>5.788548455318236</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>1.960385983801982</v>
+        <v>6.677817393899835</v>
       </c>
       <c r="C27">
-        <v>2.04797241675114</v>
+        <v>7.047636976664088</v>
       </c>
       <c r="D27">
-        <v>2.044018507666459</v>
+        <v>7.276086560887506</v>
       </c>
       <c r="E27">
-        <v>5.805918628276059</v>
+        <v>17.23377429897023</v>
       </c>
       <c r="F27">
-        <v>3.281019507442492</v>
+        <v>11.57740010765055</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>3.821855677065706</v>
+        <v>4.031955469067303</v>
       </c>
       <c r="C28">
-        <v>3.991837088064205</v>
+        <v>4.24990196235513</v>
       </c>
       <c r="D28">
-        <v>4.032526168018936</v>
+        <v>4.343595731612066</v>
       </c>
       <c r="E28">
-        <v>10.68397636232156</v>
+        <v>12.32644285692867</v>
       </c>
       <c r="F28">
-        <v>5.788548455318236</v>
+        <v>6.562855015835074</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>6.677817393899835</v>
+        <v>2.881739277419811</v>
       </c>
       <c r="C29">
-        <v>7.047636976664088</v>
+        <v>2.987744295837995</v>
       </c>
       <c r="D29">
-        <v>7.276086560887506</v>
+        <v>2.956991296558253</v>
       </c>
       <c r="E29">
-        <v>17.23377429897023</v>
+        <v>8.4083155061352</v>
       </c>
       <c r="F29">
-        <v>11.57740010765055</v>
+        <v>5.080727083118965</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>4.031955469067303</v>
+        <v>2.639724702419448</v>
       </c>
       <c r="C30">
-        <v>4.24990196235513</v>
+        <v>2.78902353134612</v>
       </c>
       <c r="D30">
-        <v>4.343595731612066</v>
+        <v>2.849336167956856</v>
       </c>
       <c r="E30">
-        <v>12.32644285692867</v>
+        <v>8.893290009509133</v>
       </c>
       <c r="F30">
-        <v>6.562855015835074</v>
+        <v>4.548002251845719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>2.881739277419811</v>
+        <v>3.855225929451888</v>
       </c>
       <c r="C31">
-        <v>2.987744295837995</v>
+        <v>4.133687703975328</v>
       </c>
       <c r="D31">
-        <v>2.956991296558253</v>
+        <v>4.082043966883234</v>
       </c>
       <c r="E31">
-        <v>8.4083155061352</v>
+        <v>14.33214434549237</v>
       </c>
       <c r="F31">
-        <v>5.080727083118965</v>
+        <v>6.537072931122868</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>2.639724702419448</v>
+        <v>7.706072056390286</v>
       </c>
       <c r="C32">
-        <v>2.78902353134612</v>
+        <v>7.419230277886903</v>
       </c>
       <c r="D32">
-        <v>2.849336167956856</v>
+        <v>7.172977291520209</v>
       </c>
       <c r="E32">
-        <v>8.893290009509133</v>
+        <v>32.47514323167513</v>
       </c>
       <c r="F32">
-        <v>4.548002251845719</v>
+        <v>14.09168133803069</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>3.855225929451888</v>
+        <v>3.906878782559177</v>
       </c>
       <c r="C33">
-        <v>4.133687703975328</v>
+        <v>4.315973184277595</v>
       </c>
       <c r="D33">
-        <v>4.082043966883234</v>
+        <v>4.673032251776158</v>
       </c>
       <c r="E33">
-        <v>14.33214434549237</v>
+        <v>11.53554162781235</v>
       </c>
       <c r="F33">
-        <v>6.537072931122868</v>
+        <v>6.614354175337925</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>7.706072056390286</v>
+        <v>2.468103423540914</v>
       </c>
       <c r="C34">
-        <v>7.419230277886903</v>
+        <v>2.600332285098948</v>
       </c>
       <c r="D34">
-        <v>7.172977291520209</v>
+        <v>2.620939867365654</v>
       </c>
       <c r="E34">
-        <v>32.47514323167513</v>
+        <v>7.223704303895132</v>
       </c>
       <c r="F34">
-        <v>14.09168133803069</v>
+        <v>4.587840775326081</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>3.906878782559177</v>
+        <v>6.865611213360118</v>
       </c>
       <c r="C35">
-        <v>4.315973184277595</v>
+        <v>7.028089928208969</v>
       </c>
       <c r="D35">
-        <v>4.673032251776158</v>
+        <v>6.709696578798263</v>
       </c>
       <c r="E35">
-        <v>11.53554162781235</v>
+        <v>19.84140842234571</v>
       </c>
       <c r="F35">
-        <v>6.614354175337925</v>
+        <v>11.36316817434177</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>2.468103423540914</v>
+        <v>5.380664307348428</v>
       </c>
       <c r="C36">
-        <v>2.600332285098948</v>
+        <v>5.514282706097252</v>
       </c>
       <c r="D36">
-        <v>2.620939867365654</v>
+        <v>5.655123457018669</v>
       </c>
       <c r="E36">
-        <v>7.223704303895132</v>
+        <v>18.0609339053396</v>
       </c>
       <c r="F36">
-        <v>4.587840775326081</v>
+        <v>9.551319703107984</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>6.865611213360118</v>
+        <v>3.885528969353799</v>
       </c>
       <c r="C37">
-        <v>7.028089928208969</v>
+        <v>4.143215792183684</v>
       </c>
       <c r="D37">
-        <v>6.709696578798263</v>
+        <v>4.185178668296756</v>
       </c>
       <c r="E37">
-        <v>19.84140842234571</v>
+        <v>11.79070807791673</v>
       </c>
       <c r="F37">
-        <v>11.36316817434177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>5.380664307348428</v>
-      </c>
-      <c r="C38">
-        <v>5.514282706097252</v>
-      </c>
-      <c r="D38">
-        <v>5.655123457018669</v>
-      </c>
-      <c r="E38">
-        <v>18.0609339053396</v>
-      </c>
-      <c r="F38">
-        <v>9.551319703107984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>3.885528969353799</v>
-      </c>
-      <c r="C39">
-        <v>4.143215792183684</v>
-      </c>
-      <c r="D39">
-        <v>4.185178668296756</v>
-      </c>
-      <c r="E39">
-        <v>11.79070807791673</v>
-      </c>
-      <c r="F39">
         <v>8.191910137740015</v>
       </c>
     </row>
